--- a/Models/August 2018/Validation/Input_August2018.xlsx
+++ b/Models/August 2018/Validation/Input_August2018.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="1"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Inflow" sheetId="4" r:id="rId1"/>
     <sheet name="Saturday_Model" sheetId="20" r:id="rId2"/>
     <sheet name="Evaporation" sheetId="18" r:id="rId3"/>
     <sheet name="Rates" sheetId="12" r:id="rId4"/>
+    <sheet name="day" sheetId="21" r:id="rId5"/>
+    <sheet name="Observed_Release(Hr)" sheetId="23" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="70">
   <si>
     <t>Inflow</t>
   </si>
@@ -870,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2977"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -24762,7 +24764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -25032,410 +25034,3056 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1">
+        <v>37.369999999999997</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37.29</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37.26</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1">
+        <v>37.26</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1">
+        <v>37.341999999999999</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1">
+        <v>37.24</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1">
+        <v>56.42</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1">
+        <v>56.75</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1">
+        <v>58.11</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1">
+        <v>62.82</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1">
+        <v>72.73</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1">
+        <v>82.75</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1">
+        <v>91.57</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1">
+        <v>96.86</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1">
+        <v>98.72</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1">
+        <v>98.74</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1">
+        <v>95.97</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1">
+        <v>87.53</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1">
+        <v>77.55</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1">
+        <v>79.790000000000006</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1">
+        <v>66.55</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1">
+        <v>57.34</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1">
-        <v>37.369999999999997</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1">
-        <v>37.29</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B2">
+        <v>17050</v>
+      </c>
+      <c r="C2">
+        <v>15775</v>
+      </c>
+      <c r="D2">
+        <v>14250</v>
+      </c>
+      <c r="E2">
+        <v>13000</v>
+      </c>
+      <c r="F2">
+        <v>12100</v>
+      </c>
+      <c r="G2">
+        <v>11525</v>
+      </c>
+      <c r="H2">
+        <v>11175</v>
+      </c>
+      <c r="I2">
+        <v>11050</v>
+      </c>
+      <c r="J2">
+        <v>11275</v>
+      </c>
+      <c r="K2">
+        <v>12100</v>
+      </c>
+      <c r="L2">
+        <v>13325</v>
+      </c>
+      <c r="M2">
+        <v>15050</v>
+      </c>
+      <c r="N2">
+        <v>16650</v>
+      </c>
+      <c r="O2">
+        <v>17625</v>
+      </c>
+      <c r="P2">
+        <v>18250</v>
+      </c>
+      <c r="Q2">
+        <v>18600</v>
+      </c>
+      <c r="R2">
+        <v>18750</v>
+      </c>
+      <c r="S2">
+        <v>18900</v>
+      </c>
+      <c r="T2">
+        <v>18900</v>
+      </c>
+      <c r="U2">
+        <v>18950</v>
+      </c>
+      <c r="V2">
+        <v>18925</v>
+      </c>
+      <c r="W2">
+        <v>18950</v>
+      </c>
+      <c r="X2">
+        <v>18875</v>
+      </c>
+      <c r="Y2">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1">
-        <v>37.262393022392203</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B3">
+        <v>17825</v>
+      </c>
+      <c r="C3">
+        <v>16500</v>
+      </c>
+      <c r="D3">
+        <v>14850</v>
+      </c>
+      <c r="E3">
+        <v>13375</v>
+      </c>
+      <c r="F3">
+        <v>12300</v>
+      </c>
+      <c r="G3">
+        <v>11600</v>
+      </c>
+      <c r="H3">
+        <v>11225</v>
+      </c>
+      <c r="I3">
+        <v>11125</v>
+      </c>
+      <c r="J3">
+        <v>11375</v>
+      </c>
+      <c r="K3">
+        <v>12450</v>
+      </c>
+      <c r="L3">
+        <v>14225</v>
+      </c>
+      <c r="M3">
+        <v>16000</v>
+      </c>
+      <c r="N3">
+        <v>17200</v>
+      </c>
+      <c r="O3">
+        <v>17950</v>
+      </c>
+      <c r="P3">
+        <v>18375</v>
+      </c>
+      <c r="Q3">
+        <v>18625</v>
+      </c>
+      <c r="R3">
+        <v>18725</v>
+      </c>
+      <c r="S3">
+        <v>18700</v>
+      </c>
+      <c r="T3">
+        <v>18875</v>
+      </c>
+      <c r="U3">
+        <v>18750</v>
+      </c>
+      <c r="V3">
+        <v>18775</v>
+      </c>
+      <c r="W3">
+        <v>18800</v>
+      </c>
+      <c r="X3">
+        <v>18775</v>
+      </c>
+      <c r="Y3">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1">
-        <v>37.26</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B4">
+        <v>17550</v>
+      </c>
+      <c r="C4">
+        <v>16125</v>
+      </c>
+      <c r="D4">
+        <v>14525</v>
+      </c>
+      <c r="E4">
+        <v>13150</v>
+      </c>
+      <c r="F4">
+        <v>12175</v>
+      </c>
+      <c r="G4">
+        <v>11550</v>
+      </c>
+      <c r="H4">
+        <v>11200</v>
+      </c>
+      <c r="I4">
+        <v>11100</v>
+      </c>
+      <c r="J4">
+        <v>11325</v>
+      </c>
+      <c r="K4">
+        <v>12400</v>
+      </c>
+      <c r="L4">
+        <v>13950</v>
+      </c>
+      <c r="M4">
+        <v>15375</v>
+      </c>
+      <c r="N4">
+        <v>16675</v>
+      </c>
+      <c r="O4">
+        <v>17600</v>
+      </c>
+      <c r="P4">
+        <v>18125</v>
+      </c>
+      <c r="Q4">
+        <v>18425</v>
+      </c>
+      <c r="R4">
+        <v>18575</v>
+      </c>
+      <c r="S4">
+        <v>18725</v>
+      </c>
+      <c r="T4">
+        <v>18800</v>
+      </c>
+      <c r="U4">
+        <v>18750</v>
+      </c>
+      <c r="V4">
+        <v>18850</v>
+      </c>
+      <c r="W4">
+        <v>18900</v>
+      </c>
+      <c r="X4">
+        <v>18900</v>
+      </c>
+      <c r="Y4">
+        <v>18525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1">
-        <v>37.270000000000003</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B5">
+        <v>17625</v>
+      </c>
+      <c r="C5">
+        <v>16150</v>
+      </c>
+      <c r="D5">
+        <v>14575</v>
+      </c>
+      <c r="E5">
+        <v>13425</v>
+      </c>
+      <c r="F5">
+        <v>12625</v>
+      </c>
+      <c r="G5">
+        <v>12175</v>
+      </c>
+      <c r="H5">
+        <v>11950</v>
+      </c>
+      <c r="I5">
+        <v>11800</v>
+      </c>
+      <c r="J5">
+        <v>11700</v>
+      </c>
+      <c r="K5">
+        <v>11625</v>
+      </c>
+      <c r="L5">
+        <v>11600</v>
+      </c>
+      <c r="M5">
+        <v>11600</v>
+      </c>
+      <c r="N5">
+        <v>11600</v>
+      </c>
+      <c r="O5">
+        <v>11700</v>
+      </c>
+      <c r="P5">
+        <v>11700</v>
+      </c>
+      <c r="Q5">
+        <v>11650</v>
+      </c>
+      <c r="R5">
+        <v>11600</v>
+      </c>
+      <c r="S5">
+        <v>11600</v>
+      </c>
+      <c r="T5">
+        <v>11600</v>
+      </c>
+      <c r="U5">
+        <v>11600</v>
+      </c>
+      <c r="V5">
+        <v>11625</v>
+      </c>
+      <c r="W5">
+        <v>11600</v>
+      </c>
+      <c r="X5">
+        <v>11600</v>
+      </c>
+      <c r="Y5">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B6">
+        <v>11600</v>
+      </c>
+      <c r="C6">
+        <v>11600</v>
+      </c>
+      <c r="D6">
+        <v>11600</v>
+      </c>
+      <c r="E6">
+        <v>11600</v>
+      </c>
+      <c r="F6">
+        <v>11600</v>
+      </c>
+      <c r="G6">
+        <v>11600</v>
+      </c>
+      <c r="H6">
+        <v>11575</v>
+      </c>
+      <c r="I6">
+        <v>11600</v>
+      </c>
+      <c r="J6">
+        <v>11600</v>
+      </c>
+      <c r="K6">
+        <v>11600</v>
+      </c>
+      <c r="L6">
+        <v>11600</v>
+      </c>
+      <c r="M6">
+        <v>11600</v>
+      </c>
+      <c r="N6">
+        <v>11600</v>
+      </c>
+      <c r="O6">
+        <v>11600</v>
+      </c>
+      <c r="P6">
+        <v>11600</v>
+      </c>
+      <c r="Q6">
+        <v>11600</v>
+      </c>
+      <c r="R6">
+        <v>11600</v>
+      </c>
+      <c r="S6">
+        <v>11600</v>
+      </c>
+      <c r="T6">
+        <v>11625</v>
+      </c>
+      <c r="U6">
+        <v>11600</v>
+      </c>
+      <c r="V6">
+        <v>11575</v>
+      </c>
+      <c r="W6">
+        <v>11550</v>
+      </c>
+      <c r="X6">
+        <v>11525</v>
+      </c>
+      <c r="Y6">
+        <v>11475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1">
-        <v>37.341999999999999</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B7">
+        <v>11450</v>
+      </c>
+      <c r="C7">
+        <v>11475</v>
+      </c>
+      <c r="D7">
+        <v>11350</v>
+      </c>
+      <c r="E7">
+        <v>11250</v>
+      </c>
+      <c r="F7">
+        <v>11150</v>
+      </c>
+      <c r="G7">
+        <v>11100</v>
+      </c>
+      <c r="H7">
+        <v>10975</v>
+      </c>
+      <c r="I7">
+        <v>11025</v>
+      </c>
+      <c r="J7">
+        <v>11350</v>
+      </c>
+      <c r="K7">
+        <v>12425</v>
+      </c>
+      <c r="L7">
+        <v>14125</v>
+      </c>
+      <c r="M7">
+        <v>15550</v>
+      </c>
+      <c r="N7">
+        <v>16675</v>
+      </c>
+      <c r="O7">
+        <v>17550</v>
+      </c>
+      <c r="P7">
+        <v>18125</v>
+      </c>
+      <c r="Q7">
+        <v>18475</v>
+      </c>
+      <c r="R7">
+        <v>18575</v>
+      </c>
+      <c r="S7">
+        <v>18675</v>
+      </c>
+      <c r="T7">
+        <v>18775</v>
+      </c>
+      <c r="U7">
+        <v>18725</v>
+      </c>
+      <c r="V7">
+        <v>18675</v>
+      </c>
+      <c r="W7">
+        <v>18600</v>
+      </c>
+      <c r="X7">
+        <v>18700</v>
+      </c>
+      <c r="Y7">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1">
-        <v>37.24</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B8">
+        <v>17500</v>
+      </c>
+      <c r="C8">
+        <v>16075</v>
+      </c>
+      <c r="D8">
+        <v>14525</v>
+      </c>
+      <c r="E8">
+        <v>13150</v>
+      </c>
+      <c r="F8">
+        <v>12175</v>
+      </c>
+      <c r="G8">
+        <v>11500</v>
+      </c>
+      <c r="H8">
+        <v>11200</v>
+      </c>
+      <c r="I8">
+        <v>11150</v>
+      </c>
+      <c r="J8">
+        <v>11450</v>
+      </c>
+      <c r="K8">
+        <v>12475</v>
+      </c>
+      <c r="L8">
+        <v>14325</v>
+      </c>
+      <c r="M8">
+        <v>16025</v>
+      </c>
+      <c r="N8">
+        <v>17250</v>
+      </c>
+      <c r="O8">
+        <v>18050</v>
+      </c>
+      <c r="P8">
+        <v>18450</v>
+      </c>
+      <c r="Q8">
+        <v>18575</v>
+      </c>
+      <c r="R8">
+        <v>18750</v>
+      </c>
+      <c r="S8">
+        <v>18825</v>
+      </c>
+      <c r="T8">
+        <v>18875</v>
+      </c>
+      <c r="U8">
+        <v>18875</v>
+      </c>
+      <c r="V8">
+        <v>18875</v>
+      </c>
+      <c r="W8">
+        <v>18900</v>
+      </c>
+      <c r="X8">
+        <v>18875</v>
+      </c>
+      <c r="Y8">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1">
-        <v>56.42</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B9">
+        <v>17575</v>
+      </c>
+      <c r="C9">
+        <v>16175</v>
+      </c>
+      <c r="D9">
+        <v>14700</v>
+      </c>
+      <c r="E9">
+        <v>13400</v>
+      </c>
+      <c r="F9">
+        <v>12325</v>
+      </c>
+      <c r="G9">
+        <v>11600</v>
+      </c>
+      <c r="H9">
+        <v>11200</v>
+      </c>
+      <c r="I9">
+        <v>11150</v>
+      </c>
+      <c r="J9">
+        <v>11250</v>
+      </c>
+      <c r="K9">
+        <v>11975</v>
+      </c>
+      <c r="L9">
+        <v>13675</v>
+      </c>
+      <c r="M9">
+        <v>15475</v>
+      </c>
+      <c r="N9">
+        <v>16800</v>
+      </c>
+      <c r="O9">
+        <v>17550</v>
+      </c>
+      <c r="P9">
+        <v>17950</v>
+      </c>
+      <c r="Q9">
+        <v>18300</v>
+      </c>
+      <c r="R9">
+        <v>18525</v>
+      </c>
+      <c r="S9">
+        <v>18650</v>
+      </c>
+      <c r="T9">
+        <v>18750</v>
+      </c>
+      <c r="U9">
+        <v>18850</v>
+      </c>
+      <c r="V9">
+        <v>18850</v>
+      </c>
+      <c r="W9">
+        <v>18775</v>
+      </c>
+      <c r="X9">
+        <v>18775</v>
+      </c>
+      <c r="Y9">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1">
-        <v>56.75</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B10">
+        <v>17550</v>
+      </c>
+      <c r="C10">
+        <v>16100</v>
+      </c>
+      <c r="D10">
+        <v>14525</v>
+      </c>
+      <c r="E10">
+        <v>13175</v>
+      </c>
+      <c r="F10">
+        <v>12150</v>
+      </c>
+      <c r="G10">
+        <v>11550</v>
+      </c>
+      <c r="H10">
+        <v>11175</v>
+      </c>
+      <c r="I10">
+        <v>11100</v>
+      </c>
+      <c r="J10">
+        <v>11400</v>
+      </c>
+      <c r="K10">
+        <v>12475</v>
+      </c>
+      <c r="L10">
+        <v>14200</v>
+      </c>
+      <c r="M10">
+        <v>15900</v>
+      </c>
+      <c r="N10">
+        <v>17200</v>
+      </c>
+      <c r="O10">
+        <v>17975</v>
+      </c>
+      <c r="P10">
+        <v>18425</v>
+      </c>
+      <c r="Q10">
+        <v>18600</v>
+      </c>
+      <c r="R10">
+        <v>18650</v>
+      </c>
+      <c r="S10">
+        <v>18750</v>
+      </c>
+      <c r="T10">
+        <v>18750</v>
+      </c>
+      <c r="U10">
+        <v>18825</v>
+      </c>
+      <c r="V10">
+        <v>18800</v>
+      </c>
+      <c r="W10">
+        <v>18800</v>
+      </c>
+      <c r="X10">
+        <v>18725</v>
+      </c>
+      <c r="Y10">
+        <v>18425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1">
-        <v>58.11</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B11">
+        <v>17450</v>
+      </c>
+      <c r="C11">
+        <v>16150</v>
+      </c>
+      <c r="D11">
+        <v>14525</v>
+      </c>
+      <c r="E11">
+        <v>13200</v>
+      </c>
+      <c r="F11">
+        <v>12125</v>
+      </c>
+      <c r="G11">
+        <v>11525</v>
+      </c>
+      <c r="H11">
+        <v>11200</v>
+      </c>
+      <c r="I11">
+        <v>11100</v>
+      </c>
+      <c r="J11">
+        <v>11400</v>
+      </c>
+      <c r="K11">
+        <v>12500</v>
+      </c>
+      <c r="L11">
+        <v>14325</v>
+      </c>
+      <c r="M11">
+        <v>16050</v>
+      </c>
+      <c r="N11">
+        <v>17300</v>
+      </c>
+      <c r="O11">
+        <v>18050</v>
+      </c>
+      <c r="P11">
+        <v>18425</v>
+      </c>
+      <c r="Q11">
+        <v>18650</v>
+      </c>
+      <c r="R11">
+        <v>18875</v>
+      </c>
+      <c r="S11">
+        <v>18850</v>
+      </c>
+      <c r="T11">
+        <v>18950</v>
+      </c>
+      <c r="U11">
+        <v>18900</v>
+      </c>
+      <c r="V11">
+        <v>18900</v>
+      </c>
+      <c r="W11">
+        <v>18875</v>
+      </c>
+      <c r="X11">
+        <v>18800</v>
+      </c>
+      <c r="Y11">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1">
-        <v>62.82</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B12">
+        <v>17500</v>
+      </c>
+      <c r="C12">
+        <v>16100</v>
+      </c>
+      <c r="D12">
+        <v>14650</v>
+      </c>
+      <c r="E12">
+        <v>13475</v>
+      </c>
+      <c r="F12">
+        <v>12750</v>
+      </c>
+      <c r="G12">
+        <v>12225</v>
+      </c>
+      <c r="H12">
+        <v>11975</v>
+      </c>
+      <c r="I12">
+        <v>11850</v>
+      </c>
+      <c r="J12">
+        <v>11725</v>
+      </c>
+      <c r="K12">
+        <v>11700</v>
+      </c>
+      <c r="L12">
+        <v>11650</v>
+      </c>
+      <c r="M12">
+        <v>11650</v>
+      </c>
+      <c r="N12">
+        <v>11650</v>
+      </c>
+      <c r="O12">
+        <v>11650</v>
+      </c>
+      <c r="P12">
+        <v>11600</v>
+      </c>
+      <c r="Q12">
+        <v>11625</v>
+      </c>
+      <c r="R12">
+        <v>11625</v>
+      </c>
+      <c r="S12">
+        <v>11650</v>
+      </c>
+      <c r="T12">
+        <v>11675</v>
+      </c>
+      <c r="U12">
+        <v>11700</v>
+      </c>
+      <c r="V12">
+        <v>11600</v>
+      </c>
+      <c r="W12">
+        <v>11600</v>
+      </c>
+      <c r="X12">
+        <v>11675</v>
+      </c>
+      <c r="Y12">
+        <v>11675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1">
-        <v>72.73</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B13">
+        <v>11675</v>
+      </c>
+      <c r="C13">
+        <v>11650</v>
+      </c>
+      <c r="D13">
+        <v>11625</v>
+      </c>
+      <c r="E13">
+        <v>11600</v>
+      </c>
+      <c r="F13">
+        <v>11600</v>
+      </c>
+      <c r="G13">
+        <v>11600</v>
+      </c>
+      <c r="H13">
+        <v>11600</v>
+      </c>
+      <c r="I13">
+        <v>11600</v>
+      </c>
+      <c r="J13">
+        <v>11600</v>
+      </c>
+      <c r="K13">
+        <v>11600</v>
+      </c>
+      <c r="L13">
+        <v>11550</v>
+      </c>
+      <c r="M13">
+        <v>11000</v>
+      </c>
+      <c r="N13">
+        <v>10190</v>
+      </c>
+      <c r="O13">
+        <v>9430</v>
+      </c>
+      <c r="P13">
+        <v>8927.5</v>
+      </c>
+      <c r="Q13">
+        <v>8597.5</v>
+      </c>
+      <c r="R13">
+        <v>8382.5</v>
+      </c>
+      <c r="S13">
+        <v>8237.5</v>
+      </c>
+      <c r="T13">
+        <v>8167.5</v>
+      </c>
+      <c r="U13">
+        <v>8117.5</v>
+      </c>
+      <c r="V13">
+        <v>8135</v>
+      </c>
+      <c r="W13">
+        <v>8212.5</v>
+      </c>
+      <c r="X13">
+        <v>8247.5</v>
+      </c>
+      <c r="Y13">
+        <v>8607.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1">
-        <v>82.75</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B14">
+        <v>9430</v>
+      </c>
+      <c r="C14">
+        <v>10375</v>
+      </c>
+      <c r="D14">
+        <v>10825</v>
+      </c>
+      <c r="E14">
+        <v>10975</v>
+      </c>
+      <c r="F14">
+        <v>10875</v>
+      </c>
+      <c r="G14">
+        <v>10775</v>
+      </c>
+      <c r="H14">
+        <v>10725</v>
+      </c>
+      <c r="I14">
+        <v>10875</v>
+      </c>
+      <c r="J14">
+        <v>11275</v>
+      </c>
+      <c r="K14">
+        <v>12425</v>
+      </c>
+      <c r="L14">
+        <v>14225</v>
+      </c>
+      <c r="M14">
+        <v>15950</v>
+      </c>
+      <c r="N14">
+        <v>17125</v>
+      </c>
+      <c r="O14">
+        <v>17875</v>
+      </c>
+      <c r="P14">
+        <v>18300</v>
+      </c>
+      <c r="Q14">
+        <v>18675</v>
+      </c>
+      <c r="R14">
+        <v>18850</v>
+      </c>
+      <c r="S14">
+        <v>18850</v>
+      </c>
+      <c r="T14">
+        <v>18800</v>
+      </c>
+      <c r="U14">
+        <v>18800</v>
+      </c>
+      <c r="V14">
+        <v>18775</v>
+      </c>
+      <c r="W14">
+        <v>18700</v>
+      </c>
+      <c r="X14">
+        <v>18775</v>
+      </c>
+      <c r="Y14">
+        <v>18475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1">
-        <v>91.57</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B15">
+        <v>17650</v>
+      </c>
+      <c r="C15">
+        <v>16225</v>
+      </c>
+      <c r="D15">
+        <v>14675</v>
+      </c>
+      <c r="E15">
+        <v>13250</v>
+      </c>
+      <c r="F15">
+        <v>12175</v>
+      </c>
+      <c r="G15">
+        <v>11475</v>
+      </c>
+      <c r="H15">
+        <v>11075</v>
+      </c>
+      <c r="I15">
+        <v>11025</v>
+      </c>
+      <c r="J15">
+        <v>11275</v>
+      </c>
+      <c r="K15">
+        <v>12350</v>
+      </c>
+      <c r="L15">
+        <v>14100</v>
+      </c>
+      <c r="M15">
+        <v>15825</v>
+      </c>
+      <c r="N15">
+        <v>17000</v>
+      </c>
+      <c r="O15">
+        <v>17700</v>
+      </c>
+      <c r="P15">
+        <v>18225</v>
+      </c>
+      <c r="Q15">
+        <v>18375</v>
+      </c>
+      <c r="R15">
+        <v>18475</v>
+      </c>
+      <c r="S15">
+        <v>18650</v>
+      </c>
+      <c r="T15">
+        <v>18575</v>
+      </c>
+      <c r="U15">
+        <v>18550</v>
+      </c>
+      <c r="V15">
+        <v>18525</v>
+      </c>
+      <c r="W15">
+        <v>18550</v>
+      </c>
+      <c r="X15">
+        <v>18500</v>
+      </c>
+      <c r="Y15">
+        <v>18175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1">
-        <v>96.86</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B16">
+        <v>17275</v>
+      </c>
+      <c r="C16">
+        <v>15950</v>
+      </c>
+      <c r="D16">
+        <v>14425</v>
+      </c>
+      <c r="E16">
+        <v>13050</v>
+      </c>
+      <c r="F16">
+        <v>12100</v>
+      </c>
+      <c r="G16">
+        <v>11500</v>
+      </c>
+      <c r="H16">
+        <v>11150</v>
+      </c>
+      <c r="I16">
+        <v>11100</v>
+      </c>
+      <c r="J16">
+        <v>11375</v>
+      </c>
+      <c r="K16">
+        <v>12525</v>
+      </c>
+      <c r="L16">
+        <v>14350</v>
+      </c>
+      <c r="M16">
+        <v>16075</v>
+      </c>
+      <c r="N16">
+        <v>17250</v>
+      </c>
+      <c r="O16">
+        <v>17925</v>
+      </c>
+      <c r="P16">
+        <v>18350</v>
+      </c>
+      <c r="Q16">
+        <v>18525</v>
+      </c>
+      <c r="R16">
+        <v>18600</v>
+      </c>
+      <c r="S16">
+        <v>18800</v>
+      </c>
+      <c r="T16">
+        <v>18850</v>
+      </c>
+      <c r="U16">
+        <v>18750</v>
+      </c>
+      <c r="V16">
+        <v>18825</v>
+      </c>
+      <c r="W16">
+        <v>18775</v>
+      </c>
+      <c r="X16">
+        <v>18800</v>
+      </c>
+      <c r="Y16">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1">
-        <v>98.72</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B17">
+        <v>17575</v>
+      </c>
+      <c r="C17">
+        <v>16150</v>
+      </c>
+      <c r="D17">
+        <v>14575</v>
+      </c>
+      <c r="E17">
+        <v>13200</v>
+      </c>
+      <c r="F17">
+        <v>12200</v>
+      </c>
+      <c r="G17">
+        <v>11575</v>
+      </c>
+      <c r="H17">
+        <v>11300</v>
+      </c>
+      <c r="I17">
+        <v>11325</v>
+      </c>
+      <c r="J17">
+        <v>11675</v>
+      </c>
+      <c r="K17">
+        <v>12725</v>
+      </c>
+      <c r="L17">
+        <v>14325</v>
+      </c>
+      <c r="M17">
+        <v>15825</v>
+      </c>
+      <c r="N17">
+        <v>17075</v>
+      </c>
+      <c r="O17">
+        <v>17825</v>
+      </c>
+      <c r="P17">
+        <v>18275</v>
+      </c>
+      <c r="Q17">
+        <v>18525</v>
+      </c>
+      <c r="R17">
+        <v>18650</v>
+      </c>
+      <c r="S17">
+        <v>18775</v>
+      </c>
+      <c r="T17">
+        <v>18800</v>
+      </c>
+      <c r="U17">
+        <v>18825</v>
+      </c>
+      <c r="V17">
+        <v>18825</v>
+      </c>
+      <c r="W17">
+        <v>18850</v>
+      </c>
+      <c r="X17">
+        <v>18700</v>
+      </c>
+      <c r="Y17">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1">
-        <v>98.74</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B18">
+        <v>17575</v>
+      </c>
+      <c r="C18">
+        <v>16175</v>
+      </c>
+      <c r="D18">
+        <v>14600</v>
+      </c>
+      <c r="E18">
+        <v>13175</v>
+      </c>
+      <c r="F18">
+        <v>12100</v>
+      </c>
+      <c r="G18">
+        <v>11450</v>
+      </c>
+      <c r="H18">
+        <v>11150</v>
+      </c>
+      <c r="I18">
+        <v>11100</v>
+      </c>
+      <c r="J18">
+        <v>11450</v>
+      </c>
+      <c r="K18">
+        <v>12550</v>
+      </c>
+      <c r="L18">
+        <v>14350</v>
+      </c>
+      <c r="M18">
+        <v>16025</v>
+      </c>
+      <c r="N18">
+        <v>17275</v>
+      </c>
+      <c r="O18">
+        <v>17950</v>
+      </c>
+      <c r="P18">
+        <v>18350</v>
+      </c>
+      <c r="Q18">
+        <v>18525</v>
+      </c>
+      <c r="R18">
+        <v>18575</v>
+      </c>
+      <c r="S18">
+        <v>18800</v>
+      </c>
+      <c r="T18">
+        <v>18750</v>
+      </c>
+      <c r="U18">
+        <v>18825</v>
+      </c>
+      <c r="V18">
+        <v>18800</v>
+      </c>
+      <c r="W18">
+        <v>18775</v>
+      </c>
+      <c r="X18">
+        <v>18775</v>
+      </c>
+      <c r="Y18">
+        <v>18325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1">
-        <v>95.97</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B19">
+        <v>17350</v>
+      </c>
+      <c r="C19">
+        <v>16025</v>
+      </c>
+      <c r="D19">
+        <v>14600</v>
+      </c>
+      <c r="E19">
+        <v>13450</v>
+      </c>
+      <c r="F19">
+        <v>12675</v>
+      </c>
+      <c r="G19">
+        <v>12200</v>
+      </c>
+      <c r="H19">
+        <v>11950</v>
+      </c>
+      <c r="I19">
+        <v>11775</v>
+      </c>
+      <c r="J19">
+        <v>11750</v>
+      </c>
+      <c r="K19">
+        <v>11800</v>
+      </c>
+      <c r="L19">
+        <v>11775</v>
+      </c>
+      <c r="M19">
+        <v>11750</v>
+      </c>
+      <c r="N19">
+        <v>11700</v>
+      </c>
+      <c r="O19">
+        <v>11650</v>
+      </c>
+      <c r="P19">
+        <v>11675</v>
+      </c>
+      <c r="Q19">
+        <v>11650</v>
+      </c>
+      <c r="R19">
+        <v>11600</v>
+      </c>
+      <c r="S19">
+        <v>11675</v>
+      </c>
+      <c r="T19">
+        <v>11700</v>
+      </c>
+      <c r="U19">
+        <v>11700</v>
+      </c>
+      <c r="V19">
+        <v>11700</v>
+      </c>
+      <c r="W19">
+        <v>11700</v>
+      </c>
+      <c r="X19">
+        <v>11675</v>
+      </c>
+      <c r="Y19">
+        <v>11625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1">
-        <v>87.53</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B20">
+        <v>11600</v>
+      </c>
+      <c r="C20">
+        <v>11625</v>
+      </c>
+      <c r="D20">
+        <v>11600</v>
+      </c>
+      <c r="E20">
+        <v>11600</v>
+      </c>
+      <c r="F20">
+        <v>11600</v>
+      </c>
+      <c r="G20">
+        <v>11600</v>
+      </c>
+      <c r="H20">
+        <v>11600</v>
+      </c>
+      <c r="I20">
+        <v>11575</v>
+      </c>
+      <c r="J20">
+        <v>11600</v>
+      </c>
+      <c r="K20">
+        <v>11600</v>
+      </c>
+      <c r="L20">
+        <v>11600</v>
+      </c>
+      <c r="M20">
+        <v>11600</v>
+      </c>
+      <c r="N20">
+        <v>11600</v>
+      </c>
+      <c r="O20">
+        <v>11600</v>
+      </c>
+      <c r="P20">
+        <v>11600</v>
+      </c>
+      <c r="Q20">
+        <v>11600</v>
+      </c>
+      <c r="R20">
+        <v>11600</v>
+      </c>
+      <c r="S20">
+        <v>11600</v>
+      </c>
+      <c r="T20">
+        <v>11600</v>
+      </c>
+      <c r="U20">
+        <v>11600</v>
+      </c>
+      <c r="V20">
+        <v>11600</v>
+      </c>
+      <c r="W20">
+        <v>11600</v>
+      </c>
+      <c r="X20">
+        <v>11600</v>
+      </c>
+      <c r="Y20">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="1">
-        <v>77.55</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B21">
+        <v>11600</v>
+      </c>
+      <c r="C21">
+        <v>11600</v>
+      </c>
+      <c r="D21">
+        <v>11550</v>
+      </c>
+      <c r="E21">
+        <v>11325</v>
+      </c>
+      <c r="F21">
+        <v>11100</v>
+      </c>
+      <c r="G21">
+        <v>10900</v>
+      </c>
+      <c r="H21">
+        <v>10800</v>
+      </c>
+      <c r="I21">
+        <v>10900</v>
+      </c>
+      <c r="J21">
+        <v>11300</v>
+      </c>
+      <c r="K21">
+        <v>12475</v>
+      </c>
+      <c r="L21">
+        <v>14350</v>
+      </c>
+      <c r="M21">
+        <v>16050</v>
+      </c>
+      <c r="N21">
+        <v>17200</v>
+      </c>
+      <c r="O21">
+        <v>17875</v>
+      </c>
+      <c r="P21">
+        <v>18300</v>
+      </c>
+      <c r="Q21">
+        <v>18500</v>
+      </c>
+      <c r="R21">
+        <v>18625</v>
+      </c>
+      <c r="S21">
+        <v>18700</v>
+      </c>
+      <c r="T21">
+        <v>18725</v>
+      </c>
+      <c r="U21">
+        <v>18750</v>
+      </c>
+      <c r="V21">
+        <v>18775</v>
+      </c>
+      <c r="W21">
+        <v>18825</v>
+      </c>
+      <c r="X21">
+        <v>18775</v>
+      </c>
+      <c r="Y21">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="1">
-        <v>79.790000000000006</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="B22">
+        <v>17800</v>
+      </c>
+      <c r="C22">
+        <v>16550</v>
+      </c>
+      <c r="D22">
+        <v>15050</v>
+      </c>
+      <c r="E22">
+        <v>13575</v>
+      </c>
+      <c r="F22">
+        <v>12425</v>
+      </c>
+      <c r="G22">
+        <v>11750</v>
+      </c>
+      <c r="H22">
+        <v>11300</v>
+      </c>
+      <c r="I22">
+        <v>11275</v>
+      </c>
+      <c r="J22">
+        <v>11525</v>
+      </c>
+      <c r="K22">
+        <v>12650</v>
+      </c>
+      <c r="L22">
+        <v>14425</v>
+      </c>
+      <c r="M22">
+        <v>16025</v>
+      </c>
+      <c r="N22">
+        <v>17100</v>
+      </c>
+      <c r="O22">
+        <v>17850</v>
+      </c>
+      <c r="P22">
+        <v>18500</v>
+      </c>
+      <c r="Q22">
+        <v>18650</v>
+      </c>
+      <c r="R22">
+        <v>18775</v>
+      </c>
+      <c r="S22">
+        <v>18775</v>
+      </c>
+      <c r="T22">
+        <v>18875</v>
+      </c>
+      <c r="U22">
+        <v>18825</v>
+      </c>
+      <c r="V22">
+        <v>18775</v>
+      </c>
+      <c r="W22">
+        <v>18825</v>
+      </c>
+      <c r="X22">
+        <v>18825</v>
+      </c>
+      <c r="Y22">
+        <v>18575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="1">
-        <v>66.55</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="B23">
+        <v>17750</v>
+      </c>
+      <c r="C23">
+        <v>16325</v>
+      </c>
+      <c r="D23">
+        <v>14750</v>
+      </c>
+      <c r="E23">
+        <v>13350</v>
+      </c>
+      <c r="F23">
+        <v>12300</v>
+      </c>
+      <c r="G23">
+        <v>11625</v>
+      </c>
+      <c r="H23">
+        <v>11225</v>
+      </c>
+      <c r="I23">
+        <v>11125</v>
+      </c>
+      <c r="J23">
+        <v>11575</v>
+      </c>
+      <c r="K23">
+        <v>12825</v>
+      </c>
+      <c r="L23">
+        <v>14575</v>
+      </c>
+      <c r="M23">
+        <v>16175</v>
+      </c>
+      <c r="N23">
+        <v>17275</v>
+      </c>
+      <c r="O23">
+        <v>17925</v>
+      </c>
+      <c r="P23">
+        <v>18275</v>
+      </c>
+      <c r="Q23">
+        <v>18525</v>
+      </c>
+      <c r="R23">
+        <v>18600</v>
+      </c>
+      <c r="S23">
+        <v>18625</v>
+      </c>
+      <c r="T23">
+        <v>18650</v>
+      </c>
+      <c r="U23">
+        <v>18650</v>
+      </c>
+      <c r="V23">
+        <v>18675</v>
+      </c>
+      <c r="W23">
+        <v>18725</v>
+      </c>
+      <c r="X23">
+        <v>18700</v>
+      </c>
+      <c r="Y23">
+        <v>18625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="1">
-        <v>57.34</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="1"/>
+      <c r="B24">
+        <v>17950</v>
+      </c>
+      <c r="C24">
+        <v>16800</v>
+      </c>
+      <c r="D24">
+        <v>15425</v>
+      </c>
+      <c r="E24">
+        <v>14150</v>
+      </c>
+      <c r="F24">
+        <v>13075</v>
+      </c>
+      <c r="G24">
+        <v>12175</v>
+      </c>
+      <c r="H24">
+        <v>11550</v>
+      </c>
+      <c r="I24">
+        <v>11475</v>
+      </c>
+      <c r="J24">
+        <v>11775</v>
+      </c>
+      <c r="K24">
+        <v>12825</v>
+      </c>
+      <c r="L24">
+        <v>14450</v>
+      </c>
+      <c r="M24">
+        <v>16075</v>
+      </c>
+      <c r="N24">
+        <v>17250</v>
+      </c>
+      <c r="O24">
+        <v>17875</v>
+      </c>
+      <c r="P24">
+        <v>18275</v>
+      </c>
+      <c r="Q24">
+        <v>18475</v>
+      </c>
+      <c r="R24">
+        <v>18600</v>
+      </c>
+      <c r="S24">
+        <v>18650</v>
+      </c>
+      <c r="T24">
+        <v>18675</v>
+      </c>
+      <c r="U24">
+        <v>18775</v>
+      </c>
+      <c r="V24">
+        <v>18800</v>
+      </c>
+      <c r="W24">
+        <v>18675</v>
+      </c>
+      <c r="X24">
+        <v>18700</v>
+      </c>
+      <c r="Y24">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>18000</v>
+      </c>
+      <c r="C25">
+        <v>16750</v>
+      </c>
+      <c r="D25">
+        <v>15100</v>
+      </c>
+      <c r="E25">
+        <v>13600</v>
+      </c>
+      <c r="F25">
+        <v>12425</v>
+      </c>
+      <c r="G25">
+        <v>11675</v>
+      </c>
+      <c r="H25">
+        <v>11300</v>
+      </c>
+      <c r="I25">
+        <v>11150</v>
+      </c>
+      <c r="J25">
+        <v>11400</v>
+      </c>
+      <c r="K25">
+        <v>12525</v>
+      </c>
+      <c r="L25">
+        <v>14325</v>
+      </c>
+      <c r="M25">
+        <v>16000</v>
+      </c>
+      <c r="N25">
+        <v>17150</v>
+      </c>
+      <c r="O25">
+        <v>17925</v>
+      </c>
+      <c r="P25">
+        <v>18200</v>
+      </c>
+      <c r="Q25">
+        <v>18450</v>
+      </c>
+      <c r="R25">
+        <v>18600</v>
+      </c>
+      <c r="S25">
+        <v>18675</v>
+      </c>
+      <c r="T25">
+        <v>18650</v>
+      </c>
+      <c r="U25">
+        <v>18700</v>
+      </c>
+      <c r="V25">
+        <v>18725</v>
+      </c>
+      <c r="W25">
+        <v>18675</v>
+      </c>
+      <c r="X25">
+        <v>18675</v>
+      </c>
+      <c r="Y25">
+        <v>18575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>17950</v>
+      </c>
+      <c r="C26">
+        <v>16700</v>
+      </c>
+      <c r="D26">
+        <v>15250</v>
+      </c>
+      <c r="E26">
+        <v>13875</v>
+      </c>
+      <c r="F26">
+        <v>12950</v>
+      </c>
+      <c r="G26">
+        <v>12350</v>
+      </c>
+      <c r="H26">
+        <v>12025</v>
+      </c>
+      <c r="I26">
+        <v>11850</v>
+      </c>
+      <c r="J26">
+        <v>11725</v>
+      </c>
+      <c r="K26">
+        <v>11675</v>
+      </c>
+      <c r="L26">
+        <v>11650</v>
+      </c>
+      <c r="M26">
+        <v>11600</v>
+      </c>
+      <c r="N26">
+        <v>11600</v>
+      </c>
+      <c r="O26">
+        <v>11600</v>
+      </c>
+      <c r="P26">
+        <v>11600</v>
+      </c>
+      <c r="Q26">
+        <v>11600</v>
+      </c>
+      <c r="R26">
+        <v>11600</v>
+      </c>
+      <c r="S26">
+        <v>11625</v>
+      </c>
+      <c r="T26">
+        <v>11575</v>
+      </c>
+      <c r="U26">
+        <v>11600</v>
+      </c>
+      <c r="V26">
+        <v>11600</v>
+      </c>
+      <c r="W26">
+        <v>11600</v>
+      </c>
+      <c r="X26">
+        <v>11575</v>
+      </c>
+      <c r="Y26">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>11600</v>
+      </c>
+      <c r="C27">
+        <v>11600</v>
+      </c>
+      <c r="D27">
+        <v>11600</v>
+      </c>
+      <c r="E27">
+        <v>11600</v>
+      </c>
+      <c r="F27">
+        <v>11600</v>
+      </c>
+      <c r="G27">
+        <v>11600</v>
+      </c>
+      <c r="H27">
+        <v>11600</v>
+      </c>
+      <c r="I27">
+        <v>11600</v>
+      </c>
+      <c r="J27">
+        <v>11600</v>
+      </c>
+      <c r="K27">
+        <v>11600</v>
+      </c>
+      <c r="L27">
+        <v>11600</v>
+      </c>
+      <c r="M27">
+        <v>11600</v>
+      </c>
+      <c r="N27">
+        <v>11600</v>
+      </c>
+      <c r="O27">
+        <v>11600</v>
+      </c>
+      <c r="P27">
+        <v>11600</v>
+      </c>
+      <c r="Q27">
+        <v>11600</v>
+      </c>
+      <c r="R27">
+        <v>11575</v>
+      </c>
+      <c r="S27">
+        <v>11625</v>
+      </c>
+      <c r="T27">
+        <v>11600</v>
+      </c>
+      <c r="U27">
+        <v>11600</v>
+      </c>
+      <c r="V27">
+        <v>11600</v>
+      </c>
+      <c r="W27">
+        <v>11600</v>
+      </c>
+      <c r="X27">
+        <v>11600</v>
+      </c>
+      <c r="Y27">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>11600</v>
+      </c>
+      <c r="C28">
+        <v>11600</v>
+      </c>
+      <c r="D28">
+        <v>11525</v>
+      </c>
+      <c r="E28">
+        <v>11325</v>
+      </c>
+      <c r="F28">
+        <v>11100</v>
+      </c>
+      <c r="G28">
+        <v>10950</v>
+      </c>
+      <c r="H28">
+        <v>10800</v>
+      </c>
+      <c r="I28">
+        <v>10900</v>
+      </c>
+      <c r="J28">
+        <v>11225</v>
+      </c>
+      <c r="K28">
+        <v>12425</v>
+      </c>
+      <c r="L28">
+        <v>14275</v>
+      </c>
+      <c r="M28">
+        <v>16025</v>
+      </c>
+      <c r="N28">
+        <v>17300</v>
+      </c>
+      <c r="O28">
+        <v>17875</v>
+      </c>
+      <c r="P28">
+        <v>18200</v>
+      </c>
+      <c r="Q28">
+        <v>18500</v>
+      </c>
+      <c r="R28">
+        <v>18650</v>
+      </c>
+      <c r="S28">
+        <v>18675</v>
+      </c>
+      <c r="T28">
+        <v>18675</v>
+      </c>
+      <c r="U28">
+        <v>18725</v>
+      </c>
+      <c r="V28">
+        <v>18750</v>
+      </c>
+      <c r="W28">
+        <v>18725</v>
+      </c>
+      <c r="X28">
+        <v>18750</v>
+      </c>
+      <c r="Y28">
+        <v>18650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>18000</v>
+      </c>
+      <c r="C29">
+        <v>16800</v>
+      </c>
+      <c r="D29">
+        <v>15200</v>
+      </c>
+      <c r="E29">
+        <v>13775</v>
+      </c>
+      <c r="F29">
+        <v>12625</v>
+      </c>
+      <c r="G29">
+        <v>11875</v>
+      </c>
+      <c r="H29">
+        <v>11375</v>
+      </c>
+      <c r="I29">
+        <v>11225</v>
+      </c>
+      <c r="J29">
+        <v>11500</v>
+      </c>
+      <c r="K29">
+        <v>12625</v>
+      </c>
+      <c r="L29">
+        <v>14375</v>
+      </c>
+      <c r="M29">
+        <v>16025</v>
+      </c>
+      <c r="N29">
+        <v>17125</v>
+      </c>
+      <c r="O29">
+        <v>17825</v>
+      </c>
+      <c r="P29">
+        <v>18250</v>
+      </c>
+      <c r="Q29">
+        <v>18475</v>
+      </c>
+      <c r="R29">
+        <v>18700</v>
+      </c>
+      <c r="S29">
+        <v>18775</v>
+      </c>
+      <c r="T29">
+        <v>18800</v>
+      </c>
+      <c r="U29">
+        <v>18800</v>
+      </c>
+      <c r="V29">
+        <v>18800</v>
+      </c>
+      <c r="W29">
+        <v>18800</v>
+      </c>
+      <c r="X29">
+        <v>18800</v>
+      </c>
+      <c r="Y29">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>17850</v>
+      </c>
+      <c r="C30">
+        <v>16600</v>
+      </c>
+      <c r="D30">
+        <v>15175</v>
+      </c>
+      <c r="E30">
+        <v>13700</v>
+      </c>
+      <c r="F30">
+        <v>12575</v>
+      </c>
+      <c r="G30">
+        <v>11750</v>
+      </c>
+      <c r="H30">
+        <v>11325</v>
+      </c>
+      <c r="I30">
+        <v>11150</v>
+      </c>
+      <c r="J30">
+        <v>11400</v>
+      </c>
+      <c r="K30">
+        <v>12500</v>
+      </c>
+      <c r="L30">
+        <v>14250</v>
+      </c>
+      <c r="M30">
+        <v>15750</v>
+      </c>
+      <c r="N30">
+        <v>16900</v>
+      </c>
+      <c r="O30">
+        <v>17700</v>
+      </c>
+      <c r="P30">
+        <v>18075</v>
+      </c>
+      <c r="Q30">
+        <v>18450</v>
+      </c>
+      <c r="R30">
+        <v>18575</v>
+      </c>
+      <c r="S30">
+        <v>18600</v>
+      </c>
+      <c r="T30">
+        <v>18650</v>
+      </c>
+      <c r="U30">
+        <v>18700</v>
+      </c>
+      <c r="V30">
+        <v>18625</v>
+      </c>
+      <c r="W30">
+        <v>18725</v>
+      </c>
+      <c r="X30">
+        <v>18750</v>
+      </c>
+      <c r="Y30">
+        <v>18550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>17925</v>
+      </c>
+      <c r="C31">
+        <v>16675</v>
+      </c>
+      <c r="D31">
+        <v>15100</v>
+      </c>
+      <c r="E31">
+        <v>13625</v>
+      </c>
+      <c r="F31">
+        <v>12400</v>
+      </c>
+      <c r="G31">
+        <v>11700</v>
+      </c>
+      <c r="H31">
+        <v>11275</v>
+      </c>
+      <c r="I31">
+        <v>11150</v>
+      </c>
+      <c r="J31">
+        <v>11475</v>
+      </c>
+      <c r="K31">
+        <v>12550</v>
+      </c>
+      <c r="L31">
+        <v>14300</v>
+      </c>
+      <c r="M31">
+        <v>15950</v>
+      </c>
+      <c r="N31">
+        <v>17100</v>
+      </c>
+      <c r="O31">
+        <v>17825</v>
+      </c>
+      <c r="P31">
+        <v>18250</v>
+      </c>
+      <c r="Q31">
+        <v>18425</v>
+      </c>
+      <c r="R31">
+        <v>18550</v>
+      </c>
+      <c r="S31">
+        <v>18650</v>
+      </c>
+      <c r="T31">
+        <v>18700</v>
+      </c>
+      <c r="U31">
+        <v>18675</v>
+      </c>
+      <c r="V31">
+        <v>18675</v>
+      </c>
+      <c r="W31">
+        <v>18700</v>
+      </c>
+      <c r="X31">
+        <v>18700</v>
+      </c>
+      <c r="Y31">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <v>18000</v>
+      </c>
+      <c r="C32">
+        <v>16750</v>
+      </c>
+      <c r="D32">
+        <v>15125</v>
+      </c>
+      <c r="E32">
+        <v>13600</v>
+      </c>
+      <c r="F32">
+        <v>12450</v>
+      </c>
+      <c r="G32">
+        <v>11700</v>
+      </c>
+      <c r="H32">
+        <v>11275</v>
+      </c>
+      <c r="I32">
+        <v>11200</v>
+      </c>
+      <c r="J32">
+        <v>11450</v>
+      </c>
+      <c r="K32">
+        <v>12450</v>
+      </c>
+      <c r="L32">
+        <v>14175</v>
+      </c>
+      <c r="M32">
+        <v>15800</v>
+      </c>
+      <c r="N32">
+        <v>16975</v>
+      </c>
+      <c r="O32">
+        <v>17750</v>
+      </c>
+      <c r="P32">
+        <v>18200</v>
+      </c>
+      <c r="Q32">
+        <v>18450</v>
+      </c>
+      <c r="R32">
+        <v>18625</v>
+      </c>
+      <c r="S32">
+        <v>18650</v>
+      </c>
+      <c r="T32">
+        <v>18725</v>
+      </c>
+      <c r="U32">
+        <v>18700</v>
+      </c>
+      <c r="V32">
+        <v>18725</v>
+      </c>
+      <c r="W32">
+        <v>18700</v>
+      </c>
+      <c r="X32">
+        <v>18750</v>
+      </c>
+      <c r="Y32">
+        <v>18700</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
